--- a/member/aldi/Training Backend Springboot - Aldi lukito.xlsx
+++ b/member/aldi/Training Backend Springboot - Aldi lukito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deni Setiawan\Desktop\training-springboot-aldi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deni Setiawan\Data\github\software-engineer-upgrade\.github\member\aldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B877F-81A9-4DF7-80B9-44795926CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853DA91-946E-4506-A5E3-F10656777CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>github</t>
-  </si>
-  <si>
-    <t>audience</t>
   </si>
   <si>
     <t>reference</t>
@@ -92,9 +89,6 @@
     <t>organization</t>
   </si>
   <si>
-    <t>https://github.com/training-backend-springboot</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Installation Docker in windows 11 
 - getting started with Docker
 - getting started with docker-compose &amp; docker-compose.yml
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>NexSOFT office</t>
+  </si>
+  <si>
+    <t>https://github.com/software-engineer-upgrade</t>
+  </si>
+  <si>
+    <t>url repo</t>
   </si>
 </sst>
 </file>
@@ -229,34 +229,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -562,235 +562,236 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>45050</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>45050</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>15</v>
+      <c r="L7" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="D5:E5"/>
@@ -798,7 +799,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L7" r:id="rId1" xr:uid="{4B3BDFC1-BDF3-4F78-B679-DE31F972E2C1}"/>

--- a/member/aldi/Training Backend Springboot - Aldi lukito.xlsx
+++ b/member/aldi/Training Backend Springboot - Aldi lukito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deni Setiawan\Data\github\software-engineer-upgrade\.github\member\aldi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deni Setiawan\Data\github\learn-backend-springboot\.github\member\aldi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853DA91-946E-4506-A5E3-F10656777CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BF5790-E228-4F17-BAE2-D6190FC8EA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>TGL</t>
   </si>
@@ -106,10 +106,36 @@
     <t>NexSOFT office</t>
   </si>
   <si>
-    <t>https://github.com/software-engineer-upgrade</t>
-  </si>
-  <si>
     <t>url repo</t>
+  </si>
+  <si>
+    <t>https://github.com/learn-backend-springboot</t>
+  </si>
+  <si>
+    <t>https://github.com/learn-backend-springboot/learning-springboot/tree/main/step-1/learn-springboot-initializer</t>
+  </si>
+  <si>
+    <t>- https://github.com/learn-backend-springboot/learning-springboot/tree/main/step-1/learn-springboot-banner
+- https://github.com/learn-backend-springboot/learning-springboot/tree/main/step-1/learn-springboot-app-properties
+- https://github.com/learn-backend-springboot/learning-springboot/tree/main/step-1/learn-springboot-app-yml
+- https://github.com/learn-backend-springboot/learning-springboot/tree/main/step-1/learn-springboot-profiles</t>
+  </si>
+  <si>
+    <t>- learn git comman basic
+git clone repo_url  | git branch -r | git checkout branch-name | git branch -l |  git add .  git commit -m "" | git push origin branch-name
+- learn install inteliIDEA, and get trial license with jetbrain acccount
+- introduce organization page "Learn-backend-springboot"
+- learn springboot initializer &amp; push to repo</t>
+  </si>
+  <si>
+    <t>- learn springboot banner	
+- learn springboot app properties	
+- learn springboot app yml
+- learn springboot profiles
+- learn springboot mysql</t>
+  </si>
+  <si>
+    <t>- learn springboot postgres</t>
   </si>
 </sst>
 </file>
@@ -141,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,49 +235,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,270 +557,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:L18"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="9.06640625" style="2"/>
-    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="14.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="96.86328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.3984375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.06640625" style="13"/>
+    <col min="2" max="2" width="9.06640625" style="12"/>
+    <col min="3" max="3" width="10.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="13"/>
+    <col min="6" max="6" width="14.265625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" customWidth="1"/>
+    <col min="9" max="9" width="96.86328125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="83.33203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="44.3984375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="14" t="s">
+    <row r="2" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="11" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="3" t="s">
+    <row r="3" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45050</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:12" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45050</v>
-      </c>
-      <c r="D7" s="9">
+    </row>
+    <row r="5" spans="2:12" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45051</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E5" s="8">
         <v>0.75</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" ht="114" x14ac:dyDescent="0.45">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45056</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{4B3BDFC1-BDF3-4F78-B679-DE31F972E2C1}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{4B3BDFC1-BDF3-4F78-B679-DE31F972E2C1}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{15DB4F94-A1C2-4265-BF81-9042E68EF3DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>